--- a/22222.xlsx
+++ b/22222.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\Desktop\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46137F4-EF26-49FD-AD10-86DA9F4A939F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33955CEF-0A2D-4423-9FC6-F4A95A7E4F79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1644,9 +1644,6 @@
     <t>model</t>
   </si>
   <si>
-    <t>Production</t>
-  </si>
-  <si>
     <t>avg.spread</t>
   </si>
   <si>
@@ -1678,6 +1675,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>production</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2058,7 @@
   <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>516</v>
@@ -2096,43 +2096,43 @@
         <v>515</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>513</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
